--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>性别●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否大连户籍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,34 +590,36 @@
     <col min="10" max="10" width="8.875" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="16" width="4.875" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
-    <col min="20" max="20" width="18.875" customWidth="1"/>
-    <col min="21" max="21" width="10.875" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="23" width="14.875" customWidth="1"/>
-    <col min="24" max="24" width="9.875" customWidth="1"/>
-    <col min="25" max="25" width="12.875" customWidth="1"/>
-    <col min="26" max="26" width="4.875" customWidth="1"/>
-    <col min="27" max="27" width="12.875" customWidth="1"/>
-    <col min="28" max="28" width="10.875" customWidth="1"/>
-    <col min="29" max="29" width="14.875" customWidth="1"/>
-    <col min="30" max="30" width="8.875" customWidth="1"/>
-    <col min="31" max="33" width="14.875" customWidth="1"/>
-    <col min="34" max="34" width="14.25" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="13.875" customWidth="1"/>
-    <col min="37" max="37" width="15.25" customWidth="1"/>
-    <col min="38" max="38" width="16.75" customWidth="1"/>
-    <col min="39" max="39" width="15.375" customWidth="1"/>
-    <col min="40" max="40" width="16.75" customWidth="1"/>
-    <col min="41" max="41" width="16.375" customWidth="1"/>
-    <col min="42" max="42" width="23.5" customWidth="1"/>
+    <col min="13" max="15" width="4.875" customWidth="1"/>
+    <col min="16" max="16" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="4.875" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="18.875" customWidth="1"/>
+    <col min="20" max="20" width="14.875" customWidth="1"/>
+    <col min="21" max="21" width="18.875" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="23" width="8.875" customWidth="1"/>
+    <col min="24" max="24" width="14.875" customWidth="1"/>
+    <col min="25" max="25" width="9.875" customWidth="1"/>
+    <col min="26" max="26" width="12.875" customWidth="1"/>
+    <col min="27" max="27" width="4.875" customWidth="1"/>
+    <col min="28" max="28" width="12.875" customWidth="1"/>
+    <col min="29" max="29" width="10.875" customWidth="1"/>
+    <col min="30" max="30" width="14.875" customWidth="1"/>
+    <col min="31" max="31" width="8.875" customWidth="1"/>
+    <col min="32" max="34" width="14.875" customWidth="1"/>
+    <col min="35" max="35" width="14.25" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
+    <col min="37" max="37" width="13.875" customWidth="1"/>
+    <col min="38" max="38" width="15.25" customWidth="1"/>
+    <col min="39" max="39" width="16.75" customWidth="1"/>
+    <col min="40" max="40" width="15.375" customWidth="1"/>
+    <col min="41" max="41" width="16.75" customWidth="1"/>
+    <col min="42" max="42" width="16.375" customWidth="1"/>
+    <col min="43" max="43" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -660,84 +666,87 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\release\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,51 @@
   </si>
   <si>
     <t>是否大连户籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上区分</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,17 +242,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,8 +286,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -574,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -591,35 +645,35 @@
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="9.875" customWidth="1"/>
     <col min="13" max="15" width="4.875" customWidth="1"/>
-    <col min="16" max="16" width="12.25" customWidth="1"/>
-    <col min="17" max="17" width="4.875" customWidth="1"/>
-    <col min="18" max="18" width="12.875" customWidth="1"/>
-    <col min="19" max="19" width="18.875" customWidth="1"/>
-    <col min="20" max="20" width="14.875" customWidth="1"/>
-    <col min="21" max="21" width="18.875" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="8.875" customWidth="1"/>
-    <col min="24" max="24" width="14.875" customWidth="1"/>
-    <col min="25" max="25" width="9.875" customWidth="1"/>
-    <col min="26" max="26" width="12.875" customWidth="1"/>
-    <col min="27" max="27" width="4.875" customWidth="1"/>
-    <col min="28" max="28" width="12.875" customWidth="1"/>
-    <col min="29" max="29" width="10.875" customWidth="1"/>
-    <col min="30" max="30" width="14.875" customWidth="1"/>
-    <col min="31" max="31" width="8.875" customWidth="1"/>
-    <col min="32" max="34" width="14.875" customWidth="1"/>
-    <col min="35" max="35" width="14.25" customWidth="1"/>
-    <col min="36" max="36" width="15" customWidth="1"/>
-    <col min="37" max="37" width="13.875" customWidth="1"/>
-    <col min="38" max="38" width="15.25" customWidth="1"/>
-    <col min="39" max="39" width="16.75" customWidth="1"/>
-    <col min="40" max="40" width="15.375" customWidth="1"/>
-    <col min="41" max="41" width="16.75" customWidth="1"/>
-    <col min="42" max="42" width="16.375" customWidth="1"/>
-    <col min="43" max="43" width="23.5" customWidth="1"/>
+    <col min="16" max="17" width="12.25" customWidth="1"/>
+    <col min="18" max="18" width="4.875" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="18.875" customWidth="1"/>
+    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="22" max="22" width="18.875" customWidth="1"/>
+    <col min="23" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="25" max="25" width="14.875" customWidth="1"/>
+    <col min="26" max="26" width="9.875" customWidth="1"/>
+    <col min="27" max="27" width="12.875" customWidth="1"/>
+    <col min="28" max="28" width="4.875" customWidth="1"/>
+    <col min="29" max="29" width="12.875" customWidth="1"/>
+    <col min="30" max="30" width="10.875" customWidth="1"/>
+    <col min="31" max="31" width="14.875" customWidth="1"/>
+    <col min="32" max="32" width="8.875" customWidth="1"/>
+    <col min="33" max="35" width="14.875" customWidth="1"/>
+    <col min="36" max="36" width="14.25" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
+    <col min="38" max="38" width="13.875" customWidth="1"/>
+    <col min="39" max="39" width="15.25" customWidth="1"/>
+    <col min="40" max="40" width="16.75" customWidth="1"/>
+    <col min="41" max="41" width="15.375" customWidth="1"/>
+    <col min="42" max="42" width="16.75" customWidth="1"/>
+    <col min="43" max="43" width="16.375" customWidth="1"/>
+    <col min="44" max="44" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -668,85 +722,88 @@
       <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\release\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,55 @@
   </si>
   <si>
     <t>性别●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否大连户籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上区分</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,17 +242,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -229,8 +286,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -586,34 +644,36 @@
     <col min="10" max="10" width="8.875" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="16" width="4.875" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="13" max="15" width="4.875" customWidth="1"/>
+    <col min="16" max="17" width="12.25" customWidth="1"/>
+    <col min="18" max="18" width="4.875" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
     <col min="20" max="20" width="18.875" customWidth="1"/>
-    <col min="21" max="21" width="10.875" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="23" width="14.875" customWidth="1"/>
-    <col min="24" max="24" width="9.875" customWidth="1"/>
-    <col min="25" max="25" width="12.875" customWidth="1"/>
-    <col min="26" max="26" width="4.875" customWidth="1"/>
+    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="22" max="22" width="18.875" customWidth="1"/>
+    <col min="23" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="25" max="25" width="14.875" customWidth="1"/>
+    <col min="26" max="26" width="9.875" customWidth="1"/>
     <col min="27" max="27" width="12.875" customWidth="1"/>
-    <col min="28" max="28" width="10.875" customWidth="1"/>
-    <col min="29" max="29" width="14.875" customWidth="1"/>
-    <col min="30" max="30" width="8.875" customWidth="1"/>
-    <col min="31" max="33" width="14.875" customWidth="1"/>
-    <col min="34" max="34" width="14.25" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="13.875" customWidth="1"/>
-    <col min="37" max="37" width="15.25" customWidth="1"/>
-    <col min="38" max="38" width="16.75" customWidth="1"/>
-    <col min="39" max="39" width="15.375" customWidth="1"/>
+    <col min="28" max="28" width="4.875" customWidth="1"/>
+    <col min="29" max="29" width="12.875" customWidth="1"/>
+    <col min="30" max="30" width="10.875" customWidth="1"/>
+    <col min="31" max="31" width="14.875" customWidth="1"/>
+    <col min="32" max="32" width="8.875" customWidth="1"/>
+    <col min="33" max="35" width="14.875" customWidth="1"/>
+    <col min="36" max="36" width="14.25" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
+    <col min="38" max="38" width="13.875" customWidth="1"/>
+    <col min="39" max="39" width="15.25" customWidth="1"/>
     <col min="40" max="40" width="16.75" customWidth="1"/>
-    <col min="41" max="41" width="16.375" customWidth="1"/>
-    <col min="42" max="42" width="23.5" customWidth="1"/>
+    <col min="41" max="41" width="15.375" customWidth="1"/>
+    <col min="42" max="42" width="16.75" customWidth="1"/>
+    <col min="43" max="43" width="16.375" customWidth="1"/>
+    <col min="44" max="44" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -660,84 +720,90 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\release\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -197,7 +197,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -208,7 +208,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,7 +218,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -229,7 +229,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -242,17 +242,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,7 +260,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,9 +286,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -630,11 +631,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="6" width="10.875" customWidth="1"/>
@@ -654,7 +657,7 @@
     <col min="23" max="23" width="10.875" customWidth="1"/>
     <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="25" width="14.875" customWidth="1"/>
-    <col min="26" max="26" width="9.875" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="2" customWidth="1"/>
     <col min="27" max="27" width="12.875" customWidth="1"/>
     <col min="28" max="28" width="4.875" customWidth="1"/>
     <col min="29" max="29" width="12.875" customWidth="1"/>
@@ -673,8 +676,8 @@
     <col min="44" max="44" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
-      <c r="A1" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
@@ -749,7 +752,7 @@
       <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AA1" t="s">
@@ -810,5 +813,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,14 @@
       </rPr>
       <t>上区分</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会保险号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住房公积金号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,11 +637,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -660,23 +666,23 @@
     <col min="26" max="26" width="9.875" style="2" customWidth="1"/>
     <col min="27" max="27" width="12.875" customWidth="1"/>
     <col min="28" max="28" width="4.875" customWidth="1"/>
-    <col min="29" max="29" width="12.875" customWidth="1"/>
-    <col min="30" max="30" width="10.875" customWidth="1"/>
-    <col min="31" max="31" width="14.875" customWidth="1"/>
-    <col min="32" max="32" width="8.875" customWidth="1"/>
-    <col min="33" max="35" width="14.875" customWidth="1"/>
-    <col min="36" max="36" width="14.25" customWidth="1"/>
-    <col min="37" max="37" width="15" customWidth="1"/>
-    <col min="38" max="38" width="13.875" customWidth="1"/>
-    <col min="39" max="39" width="15.25" customWidth="1"/>
-    <col min="40" max="40" width="16.75" customWidth="1"/>
-    <col min="41" max="41" width="15.375" customWidth="1"/>
+    <col min="29" max="31" width="12.875" customWidth="1"/>
+    <col min="32" max="32" width="10.875" customWidth="1"/>
+    <col min="33" max="33" width="14.875" customWidth="1"/>
+    <col min="34" max="34" width="8.875" customWidth="1"/>
+    <col min="35" max="37" width="14.875" customWidth="1"/>
+    <col min="38" max="38" width="14.25" customWidth="1"/>
+    <col min="39" max="39" width="15" customWidth="1"/>
+    <col min="40" max="40" width="13.875" customWidth="1"/>
+    <col min="41" max="41" width="15.25" customWidth="1"/>
     <col min="42" max="42" width="16.75" customWidth="1"/>
-    <col min="43" max="43" width="16.375" customWidth="1"/>
-    <col min="44" max="44" width="23.5" customWidth="1"/>
+    <col min="43" max="43" width="15.375" customWidth="1"/>
+    <col min="44" max="44" width="16.75" customWidth="1"/>
+    <col min="45" max="45" width="16.375" customWidth="1"/>
+    <col min="46" max="46" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -765,48 +771,54 @@
         <v>21</v>
       </c>
       <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -1,196 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>卡号</t>
+  </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
   <si>
     <t>入社时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别●</t>
   </si>
   <si>
     <t>预算编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AD域账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>户籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终毕业学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有工作经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仕事开始年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动合同类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否独生子女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年年休数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升格升号年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定期限締切日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>変更前基本工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>変更前职责工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>給料変更日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老保险基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗保险基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失业保险基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工伤保险基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育保险基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住房公积金缴纳基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现基本工资●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现职责工资●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否大连户籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -198,7 +69,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -209,7 +79,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>金</t>
@@ -219,7 +89,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,38 +99,133 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>上区分</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>最终毕业学校</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>是否有工作经验</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>毕业年月日</t>
+  </si>
+  <si>
+    <t>最终学位</t>
+  </si>
+  <si>
+    <t>仕事开始年月日</t>
+  </si>
+  <si>
+    <t>员工ID</t>
+  </si>
+  <si>
+    <t>劳动合同类型</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>是否独生子女</t>
   </si>
   <si>
     <t>社会保险号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>住房公积金号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年年休数</t>
+  </si>
+  <si>
+    <t>升格升号年月日</t>
+  </si>
+  <si>
+    <t>银行账号</t>
+  </si>
+  <si>
+    <t>固定期限締切日</t>
+  </si>
+  <si>
+    <t>変更前基本工资</t>
+  </si>
+  <si>
+    <t>変更前职责工资</t>
+  </si>
+  <si>
+    <t>现基本工资●</t>
+  </si>
+  <si>
+    <t>现职责工资●</t>
+  </si>
+  <si>
+    <t>給料変更日</t>
+  </si>
+  <si>
+    <t>养老保险基数</t>
+  </si>
+  <si>
+    <t>医疗保险基数</t>
+  </si>
+  <si>
+    <t>失业保险基数</t>
+  </si>
+  <si>
+    <t>工伤保险基数</t>
+  </si>
+  <si>
+    <t>生育保险基数</t>
+  </si>
+  <si>
+    <t>住房公积金缴纳基数</t>
+  </si>
+  <si>
+    <t>离职理由分类</t>
+  </si>
+  <si>
+    <t>离职去向</t>
+  </si>
+  <si>
+    <t>离职去向（手动）</t>
+  </si>
+  <si>
+    <t>转职公司</t>
+  </si>
+  <si>
+    <t>退职理由</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -269,20 +233,356 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -290,26 +590,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -631,19 +1218,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="6" width="10.875" customWidth="1"/>
@@ -663,7 +1252,7 @@
     <col min="23" max="23" width="10.875" customWidth="1"/>
     <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="25" width="14.875" customWidth="1"/>
-    <col min="26" max="26" width="9.875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.875" style="1" customWidth="1"/>
     <col min="27" max="27" width="12.875" customWidth="1"/>
     <col min="28" max="28" width="4.875" customWidth="1"/>
     <col min="29" max="31" width="12.875" customWidth="1"/>
@@ -682,149 +1271,167 @@
     <col min="46" max="46" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>34</v>
+      <c r="AU1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\China\Project\newparkcloud0405\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>卡号</t>
   </si>
@@ -68,8 +73,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>奖</t>
@@ -78,8 +82,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>金</t>
@@ -88,8 +91,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>记</t>
@@ -98,8 +100,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>上区分</t>
@@ -210,379 +211,67 @@
   <si>
     <t>其他</t>
   </si>
+  <si>
+    <r>
+      <t>离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>职时间</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -590,251 +279,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -842,61 +289,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1218,19 +621,17 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AZ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -1271,7 +672,7 @@
     <col min="46" max="46" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,15 +824,18 @@
         <v>49</v>
       </c>
       <c r="AY1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\China\Project\newparkcloud0405\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,7 +73,9 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>奖</t>
@@ -82,7 +84,9 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>金</t>
@@ -91,7 +95,9 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>记</t>
@@ -100,7 +106,9 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>上区分</t>
@@ -212,20 +220,7 @@
     <t>其他</t>
   </si>
   <si>
-    <r>
-      <t>离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>职时间</t>
-    </r>
+    <t>退职日</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -233,33 +228,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -283,14 +272,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -631,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -672,7 +662,7 @@
     <col min="46" max="46" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +813,7 @@
       <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AZ1" s="3" t="s">

--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud1016\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>卡号</t>
   </si>
@@ -223,12 +223,16 @@
     <t>退职日</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>试用期截止日</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +253,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,15 +282,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -617,11 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA1"/>
+  <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -642,27 +655,27 @@
     <col min="22" max="22" width="18.875" customWidth="1"/>
     <col min="23" max="23" width="10.875" customWidth="1"/>
     <col min="24" max="24" width="8.875" customWidth="1"/>
-    <col min="25" max="25" width="14.875" customWidth="1"/>
-    <col min="26" max="26" width="9.875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.875" customWidth="1"/>
-    <col min="28" max="28" width="4.875" customWidth="1"/>
-    <col min="29" max="31" width="12.875" customWidth="1"/>
-    <col min="32" max="32" width="10.875" customWidth="1"/>
-    <col min="33" max="33" width="14.875" customWidth="1"/>
-    <col min="34" max="34" width="8.875" customWidth="1"/>
-    <col min="35" max="37" width="14.875" customWidth="1"/>
-    <col min="38" max="38" width="14.25" customWidth="1"/>
-    <col min="39" max="39" width="15" customWidth="1"/>
-    <col min="40" max="40" width="13.875" customWidth="1"/>
-    <col min="41" max="41" width="15.25" customWidth="1"/>
-    <col min="42" max="42" width="16.75" customWidth="1"/>
-    <col min="43" max="43" width="15.375" customWidth="1"/>
-    <col min="44" max="44" width="16.75" customWidth="1"/>
-    <col min="45" max="45" width="16.375" customWidth="1"/>
-    <col min="46" max="46" width="23.5" customWidth="1"/>
+    <col min="25" max="26" width="14.875" customWidth="1"/>
+    <col min="27" max="27" width="9.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.875" customWidth="1"/>
+    <col min="29" max="29" width="4.875" customWidth="1"/>
+    <col min="30" max="32" width="12.875" customWidth="1"/>
+    <col min="33" max="33" width="10.875" customWidth="1"/>
+    <col min="34" max="34" width="14.875" customWidth="1"/>
+    <col min="35" max="35" width="8.875" customWidth="1"/>
+    <col min="36" max="38" width="14.875" customWidth="1"/>
+    <col min="39" max="39" width="14.25" customWidth="1"/>
+    <col min="40" max="40" width="15" customWidth="1"/>
+    <col min="41" max="41" width="13.875" customWidth="1"/>
+    <col min="42" max="42" width="15.25" customWidth="1"/>
+    <col min="43" max="43" width="16.75" customWidth="1"/>
+    <col min="44" max="44" width="15.375" customWidth="1"/>
+    <col min="45" max="45" width="16.75" customWidth="1"/>
+    <col min="46" max="46" width="16.375" customWidth="1"/>
+    <col min="47" max="47" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,88 +751,91 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>51</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud1016\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,9 +54,6 @@
     <t>生年月日</t>
   </si>
   <si>
-    <t>AD域账号</t>
-  </si>
-  <si>
     <t>国籍</t>
   </si>
   <si>
@@ -73,7 +70,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -84,7 +81,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -95,7 +92,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -106,7 +103,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -225,6 +222,23 @@
   </si>
   <si>
     <t>试用期截止日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录账户</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -236,21 +250,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -258,7 +272,8 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,7 +306,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -630,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -709,134 +722,134 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
+++ b/controller/src/main/resources/jxls_templates/renyuanxinxi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA31D8C-5D90-4DA9-A184-D5EF04B21245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>卡号</t>
   </si>
@@ -70,7 +71,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -81,7 +82,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -92,7 +93,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -103,7 +104,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -232,7 +233,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -241,30 +242,34 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>职级类型</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -272,7 +277,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -642,12 +647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -655,40 +662,41 @@
     <col min="4" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="15" width="4.875" customWidth="1"/>
-    <col min="16" max="17" width="12.25" customWidth="1"/>
-    <col min="18" max="18" width="4.875" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="20" max="20" width="18.875" customWidth="1"/>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
-    <col min="22" max="22" width="18.875" customWidth="1"/>
-    <col min="23" max="23" width="10.875" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
-    <col min="25" max="26" width="14.875" customWidth="1"/>
-    <col min="27" max="27" width="9.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.875" customWidth="1"/>
-    <col min="29" max="29" width="4.875" customWidth="1"/>
-    <col min="30" max="32" width="12.875" customWidth="1"/>
-    <col min="33" max="33" width="10.875" customWidth="1"/>
-    <col min="34" max="34" width="14.875" customWidth="1"/>
-    <col min="35" max="35" width="8.875" customWidth="1"/>
-    <col min="36" max="38" width="14.875" customWidth="1"/>
-    <col min="39" max="39" width="14.25" customWidth="1"/>
-    <col min="40" max="40" width="15" customWidth="1"/>
-    <col min="41" max="41" width="13.875" customWidth="1"/>
-    <col min="42" max="42" width="15.25" customWidth="1"/>
-    <col min="43" max="43" width="16.75" customWidth="1"/>
-    <col min="44" max="44" width="15.375" customWidth="1"/>
-    <col min="45" max="45" width="16.75" customWidth="1"/>
-    <col min="46" max="46" width="16.375" customWidth="1"/>
-    <col min="47" max="47" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="16" width="4.875" customWidth="1"/>
+    <col min="17" max="18" width="12.25" customWidth="1"/>
+    <col min="19" max="19" width="4.875" customWidth="1"/>
+    <col min="20" max="20" width="12.875" customWidth="1"/>
+    <col min="21" max="21" width="18.875" customWidth="1"/>
+    <col min="22" max="22" width="14.875" customWidth="1"/>
+    <col min="23" max="23" width="18.875" customWidth="1"/>
+    <col min="24" max="24" width="10.875" customWidth="1"/>
+    <col min="25" max="25" width="8.875" customWidth="1"/>
+    <col min="26" max="27" width="14.875" customWidth="1"/>
+    <col min="28" max="28" width="9.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.875" customWidth="1"/>
+    <col min="30" max="30" width="4.875" customWidth="1"/>
+    <col min="31" max="33" width="12.875" customWidth="1"/>
+    <col min="34" max="34" width="10.875" customWidth="1"/>
+    <col min="35" max="35" width="14.875" customWidth="1"/>
+    <col min="36" max="36" width="8.875" customWidth="1"/>
+    <col min="37" max="39" width="14.875" customWidth="1"/>
+    <col min="40" max="40" width="14.25" customWidth="1"/>
+    <col min="41" max="41" width="15" customWidth="1"/>
+    <col min="42" max="42" width="13.875" customWidth="1"/>
+    <col min="43" max="43" width="15.25" customWidth="1"/>
+    <col min="44" max="44" width="16.75" customWidth="1"/>
+    <col min="45" max="45" width="15.375" customWidth="1"/>
+    <col min="46" max="46" width="16.75" customWidth="1"/>
+    <col min="47" max="47" width="16.375" customWidth="1"/>
+    <col min="48" max="48" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,142 +721,145 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
